--- a/biology/Écologie/Colonisation_(biologie)/Colonisation_(biologie).xlsx
+++ b/biology/Écologie/Colonisation_(biologie)/Colonisation_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En biologie, une colonisation est le processus dans lequel une espèce se propage dans de nouveaux habitats. Le terme est généralement utilisé quand cette dernière se répand par des moyens naturels et de manière spontanée, par opposition à une espèce introduite (du fait de l'homme) et qui peut devenir dans certains cas une espèce envahissante[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En biologie, une colonisation est le processus dans lequel une espèce se propage dans de nouveaux habitats. Le terme est généralement utilisé quand cette dernière se répand par des moyens naturels et de manière spontanée, par opposition à une espèce introduite (du fait de l'homme) et qui peut devenir dans certains cas une espèce envahissante,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les biofilms correspondent à la colonisation d'une communauté de micro-organismes immobilisés sur une surface. La bioréceptivité désigne l'ensemble des caractéristiques d'un substrat qui déterminent un potentiel de colonisation biologique.
 	Exemples de colonisations biologiques en Europe :
